--- a/TestWebApp/App_Data/Předávací protokol_V4 MAUR_Hruska.xlsx
+++ b/TestWebApp/App_Data/Předávací protokol_V4 MAUR_Hruska.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skok\Projects\_CNWP\db_test1\TestWebApp_1_debug\TestWebApp\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skok\Projects\_CNWP\db_dev\TestWebApp_1_debug\TestWebApp\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{40EBB69D-57AC-4252-A46E-FFBA4A732075}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1FC75C6-9D29-4FD1-9808-AD7EBD8EEE5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28605" windowHeight="4695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GUSTO KARTA" sheetId="2" r:id="rId1"/>
+    <sheet name="Gusto Karta" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -424,6 +424,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -442,27 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,7 +833,7 @@
   <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -848,12 +848,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -882,10 +882,10 @@
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -893,41 +893,41 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -939,16 +939,16 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:5" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1061,12 +1061,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="5fc6e77b-1a45-456b-992e-ca72560faced">
+      <UserInfo>
+        <DisplayName>Klein Michael</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Urban Martin</DisplayName>
+        <AccountId>22</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Vohanková Johana</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,33 +1247,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="5fc6e77b-1a45-456b-992e-ca72560faced">
-      <UserInfo>
-        <DisplayName>Klein Michael</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Urban Martin</DisplayName>
-        <AccountId>22</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Vohanková Johana</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB421F7B-6738-471D-AD59-CB16519B1CB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862F125E-FDB8-4E99-A7B3-21232F7215A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5fc6e77b-1a45-456b-992e-ca72560faced"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1282,17 +1290,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862F125E-FDB8-4E99-A7B3-21232F7215A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB421F7B-6738-471D-AD59-CB16519B1CB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5fc6e77b-1a45-456b-992e-ca72560faced"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>